--- a/futures weekly returns.xlsx
+++ b/futures weekly returns.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D5:D6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -415,22 +415,22 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2.12</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="B2" s="1">
-        <v>91613</v>
+        <v>208000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="B3" s="1">
-        <v>92068</v>
+        <v>129175</v>
       </c>
       <c r="C3" s="2">
         <f>(B3-B2)/B2</f>
-        <v>4.9665440494252996E-3</v>
+        <v>-0.37896634615384617</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -438,11 +438,110 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="B4" s="1">
-        <v>120000</v>
+        <v>174444</v>
       </c>
       <c r="C4" s="2">
         <f>(B4-B3)/B3</f>
-        <v>0.3033844549680671</v>
+        <v>0.3504470679311012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>230000</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(B5-B4)/B4</f>
+        <v>0.31847469675081974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>309999</v>
+      </c>
+      <c r="C6" s="2">
+        <f>(B6-B5)/B5</f>
+        <v>0.34782173913043479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>400000</v>
+      </c>
+      <c r="C7" s="2">
+        <f>(B7-B6)/B6</f>
+        <v>0.29032674298949351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C15" si="0">(B8-B7)/B7</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>650000</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>860000</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32307692307692309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39534883720930231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/futures weekly returns.xlsx
+++ b/futures weekly returns.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="股票下网测试" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +35,22 @@
   </si>
   <si>
     <t>总收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月份成本价和日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -41,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +73,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -65,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,17 +105,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -92,21 +148,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -386,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B9:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -435,126 +491,100 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2.2599999999999998</v>
+        <v>3.4</v>
       </c>
       <c r="B4" s="1">
-        <v>174444</v>
+        <v>128186</v>
       </c>
       <c r="C4" s="2">
         <f>(B4-B3)/B3</f>
-        <v>0.3504470679311012</v>
+        <v>-7.6562802399845172E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="C5" s="2">
         <f>(B5-B4)/B4</f>
-        <v>0.31847469675081974</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>309999</v>
-      </c>
-      <c r="C6" s="2">
-        <f>(B6-B5)/B5</f>
-        <v>0.34782173913043479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>400000</v>
-      </c>
-      <c r="C7" s="2">
-        <f>(B7-B6)/B6</f>
-        <v>0.29032674298949351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>500000</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:C15" si="0">(B8-B7)/B7</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>650000</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>860000</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.32307692307692309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>1200000</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.39534883720930231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>1800000</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>2500000</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.3888888888888889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>3500000</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.17017459004883528</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C967">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>-0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>-0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="16.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="9" style="5"/>
+    <col min="10" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>3659</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2674</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>3064</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2249</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>